--- a/textbefore-textafter-demo.xlsx
+++ b/textbefore-textafter-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC66C79-6216-4A58-8143-407775477618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F5003-D854-4637-8AFF-06D802AE2FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="textbefore-textafter" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email: user@example.com</t>
   </si>
@@ -53,10 +53,13 @@
     <t>JaneSmith1987</t>
   </si>
   <si>
-    <t>John_Doe_1985_</t>
-  </si>
-  <si>
-    <t>JaneSmith1987_</t>
+    <t>Name:John Doe And Age:30 Or City:New York</t>
+  </si>
+  <si>
+    <t>name:Sarah Smith and Age:25 or City:Los Angeles</t>
+  </si>
+  <si>
+    <t>NAME:Bob Johnson AND Age:40 OR City:Seattle</t>
   </si>
 </sst>
 </file>
@@ -379,9 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -433,7 +434,7 @@
     <col min="3" max="3" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=TEXTBEFORE(A2, ":", 2)</v>
@@ -466,7 +467,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -519,27 +520,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35198B80-AC5B-4430-81C2-475443FC9405}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
-        <v>=TEXTBEFORE(A2, "_", , , , "Match not found")</v>
+        <v>=TEXTBEFORE(A2, {"and","or"}, , 1, , )</v>
       </c>
       <c r="C1" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C2)</f>
-        <v>=TEXTAFTER(A2, "_", , , , "Match not found")</v>
+        <v>=TEXTAFTER(A2, {"and","or"}, 2, 1, , )</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -547,12 +546,12 @@
         <v>4</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.TEXTBEFORE(A2, "_", , , , "Match not found")</f>
-        <v>John</v>
+        <f>_xlfn.TEXTBEFORE(A2, {"and","or"}, , 1, , )</f>
+        <v xml:space="preserve">Name:John Doe </v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.TEXTAFTER(A2, "_", , , , "Match not found")</f>
-        <v>Doe_1985_</v>
+        <f>_xlfn.TEXTAFTER(A2, {"and","or"}, 2, 1, , )</f>
+        <v xml:space="preserve"> City:New York</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -560,13 +559,30 @@
         <v>5</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.TEXTBEFORE(A3, "_", , , , "Match not found")</f>
-        <v>JaneSmith1987</v>
+        <f>_xlfn.TEXTBEFORE(A3, {"and","or"}, , 1, , )</f>
+        <v xml:space="preserve">name:Sarah Smith </v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.TEXTAFTER(A3, "_", , , , "Match not found")</f>
-        <v/>
-      </c>
+        <f>_xlfn.TEXTAFTER(A3, {"and","or"}, 2, 1, , )</f>
+        <v xml:space="preserve"> City:Los Angeles</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.TEXTBEFORE(A4, {"and","or"}, , 1, , )</f>
+        <v xml:space="preserve">NAME:Bob Johnson </v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.TEXTAFTER(A4, {"and","or"}, 2, 1, , )</f>
+        <v xml:space="preserve"> City:Seattle</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
